--- a/testCases/TestData/LoginData.xlsx
+++ b/testCases/TestData/LoginData.xlsx
@@ -1,100 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Practice_Pytest_Credkart\testCases\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC585D-50CC-4456-BF08-DB1EC2F81EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Expected_Result</t>
-  </si>
-  <si>
-    <t>Actual_Result</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>puja12@gmail.com</t>
-  </si>
-  <si>
-    <t>Puja@123</t>
-  </si>
-  <si>
-    <t>Puja@1234</t>
-  </si>
-  <si>
-    <t>puja121@gmail.com</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,27 +60,86 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,214 +405,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col width="23.77734375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.5546875" customWidth="1" min="2" max="2"/>
+    <col width="14.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="18.109375" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Expected_Result</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Actual_Result</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>puja12@gmail.com</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Puja@123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>puja12@gmail.com</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Puja@1234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>puja121@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Puja@123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>puja121@gmail.com</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Puja@1234</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B2BBDBBD-C9A2-48E1-9649-9CC1EC34046F}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{7BF86177-2172-4A8C-BF72-9419293760BE}"/>
-    <hyperlink ref="A3:A5" r:id="rId3" display="puja12@gmail.com" xr:uid="{8002FE22-FD99-40FC-842C-CA4EBF97C8BD}"/>
-    <hyperlink ref="B3:B5" r:id="rId4" display="Puja@123" xr:uid="{57A77D1F-C086-47A8-88E3-21FCA1C40DC3}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{A77638DA-9380-4240-BDE1-93A002135001}"/>
-    <hyperlink ref="A4" r:id="rId6" xr:uid="{0355E7C0-43C5-4AEC-9C94-E5FE140C0110}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{1F871FD9-A3C6-4B94-8235-D96941F5B054}"/>
-    <hyperlink ref="A5" r:id="rId8" xr:uid="{644718C4-FC15-4AFD-B10F-FE3A8420A4FF}"/>
-    <hyperlink ref="B5" r:id="rId9" xr:uid="{B98EC620-EB49-4B1E-9987-6DF4BA35F332}"/>
-    <hyperlink ref="A6" r:id="rId10" xr:uid="{FB65C306-24B6-4E42-950B-4C488C9F4621}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{5436AC2E-D96E-4D20-B8B4-25F5B7FB8F50}"/>
-    <hyperlink ref="A7:A9" r:id="rId12" display="puja12@gmail.com" xr:uid="{A0E8D8CC-AEF7-448E-8B96-4384E82280C7}"/>
-    <hyperlink ref="B7:B9" r:id="rId13" display="Puja@123" xr:uid="{F93DD137-1F91-420B-A744-1AEDE54751FC}"/>
-    <hyperlink ref="B7" r:id="rId14" xr:uid="{105AD6C3-F6C9-4263-9FD7-DF7CA1DCA2E9}"/>
-    <hyperlink ref="A8" r:id="rId15" xr:uid="{06782790-5519-456D-B7FE-0BF7E73FF22A}"/>
-    <hyperlink ref="B8" r:id="rId16" xr:uid="{71E9BD00-16E0-4C42-8CCF-06F5ECA96570}"/>
-    <hyperlink ref="A9" r:id="rId17" xr:uid="{1751DDA8-DC22-4B49-A955-E9524D22B57E}"/>
-    <hyperlink ref="B9" r:id="rId18" xr:uid="{AD049DCD-D47C-4ADC-A9E8-3ADCDDFDE6AB}"/>
-    <hyperlink ref="A10" r:id="rId19" xr:uid="{AA9B2DB7-10F8-4E7E-B72E-C0A19BA7BF5E}"/>
-    <hyperlink ref="B10" r:id="rId20" xr:uid="{67436C73-FD04-42C7-9F34-7095236966A4}"/>
-    <hyperlink ref="A11:A13" r:id="rId21" display="puja12@gmail.com" xr:uid="{0CC334C5-0600-4341-BA18-FBE830F8E7DD}"/>
-    <hyperlink ref="B11:B13" r:id="rId22" display="Puja@123" xr:uid="{988CF567-571C-4379-B45B-4AA1B9415A44}"/>
-    <hyperlink ref="B11" r:id="rId23" xr:uid="{78AA587E-E999-4499-8E9A-54457006AF09}"/>
-    <hyperlink ref="A12" r:id="rId24" xr:uid="{FC2098FE-F36A-4A43-906C-B6F4ADD73403}"/>
-    <hyperlink ref="B12" r:id="rId25" xr:uid="{DE4A1AE4-31D9-4BAB-BBD5-4CCF67D26906}"/>
-    <hyperlink ref="A13" r:id="rId26" xr:uid="{7C0D868B-D218-48C2-8E1C-F47C39EE5B37}"/>
-    <hyperlink ref="B13" r:id="rId27" xr:uid="{02B1654A-5B83-48F8-AC9E-40CD24498E4F}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27814E0-D95D-4BDB-8A60-B8DA6B7FC0D0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col width="17.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.21875" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
